--- a/result/reg/2024_solo_20s_ratio.xlsx
+++ b/result/reg/2024_solo_20s_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.632</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.619</v>
+        <v>-0.594</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.658</v>
+        <v>-0.596</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,36 +504,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>한식음식점</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.375</v>
+        <v>-0.232</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.209</v>
+        <v>-0.253</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.263</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>월평균소득</t>
+          <t>쇼핑업체수</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.175</v>
+        <v>-0.164</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -541,7 +547,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.19</v>
+        <v>-0.172</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -549,7 +555,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.158</v>
+        <v>-0.208</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -560,19 +566,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>슈퍼마켓</t>
+          <t>제과점</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08500000000000001</v>
+        <v>-0.167</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.061</v>
+        <v>-0.157</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -585,11 +591,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>양식음식점</t>
+          <t>미용실</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.039</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -597,7 +603,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.065</v>
+        <v>0.054</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,19 +616,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>기타대학</t>
+          <t>대형마트</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.083</v>
+        <v>0.061</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.077</v>
+        <v>0.062</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -635,11 +641,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>커피-음료</t>
+          <t>기타대학</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.089</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -647,30 +653,24 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.102</v>
+        <v>0.073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>일식음식점</t>
+          <t>지가변동률</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.307</v>
+        <v>0.08</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -678,38 +678,32 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.328</v>
+        <v>0.079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.301</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>양식음식점</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.411</v>
+        <v>0.115</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.403</v>
+        <v>0.163</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -717,7 +711,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.421</v>
+        <v>0.131</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -728,11 +722,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>편의점</t>
+          <t>네일숍</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.514</v>
+        <v>0.339</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -740,7 +734,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.474</v>
+        <v>0.305</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -748,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.372</v>
+        <v>0.266</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -759,68 +753,104 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>네일숍</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.195</v>
+        <v>0.309</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>미용실</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.231</v>
+        <v>0.392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>대학교</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.237</v>
+        <v>0.441</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>중식음식점</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.012</v>
+        <v>0.209</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -835,11 +865,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>치킨전문점</t>
+          <t>한식음식점</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.079</v>
+        <v>-0.324</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -854,11 +884,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>패스트푸드점</t>
+          <t>일식음식점</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.077</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -873,11 +903,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>제과점</t>
+          <t>중식음식점</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002</v>
+        <v>-0.022</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -892,11 +922,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>호프-간이주점</t>
+          <t>치킨전문점</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.15</v>
+        <v>-0.027</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -911,11 +941,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>대형마트</t>
+          <t>커피-음료</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.076</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -930,11 +960,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>쇼핑업체수</t>
+          <t>패스트푸드점</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.051</v>
+        <v>-0.056</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -949,11 +979,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>지가변동률</t>
+          <t>호프-간이주점</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.039</v>
+        <v>0.057</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -968,11 +998,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>지가</t>
+          <t>슈퍼마켓</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02</v>
+        <v>0.008</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -987,11 +1017,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>지가</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.203</v>
+        <v>0.003</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1003,25 +1033,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>종사자수</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.242</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
